--- a/Data/CH_rail_passenger_yearly data since 2011.xlsx
+++ b/Data/CH_rail_passenger_yearly data since 2011.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silva\Documents\Schule\HSLU\Semester 6\WAM69 Python\Python\Project_Python\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hsluzern-my.sharepoint.com/personal/cristiano_antunes_stud_hslu_ch/Documents/International Business Administration IBA/Semester 06/Programming with Phyton/Project_Python/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5A4445-0EDF-4F06-9C1A-2F8791936B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{1F5A4445-0EDF-4F06-9C1A-2F8791936B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{93C57C7D-B28E-46F8-B488-BC34F3B953B6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4650" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CH Yearly Rail Passengers" sheetId="3" r:id="rId1"/>
@@ -34,10 +34,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Switzerland</t>
+    <t>Year</t>
   </si>
   <si>
-    <t>Country</t>
+    <t>Rail Passengers</t>
   </si>
 </sst>
 </file>
@@ -53,12 +53,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -70,8 +64,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,11 +81,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4669AF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
   </fills>
@@ -107,32 +102,33 @@
       <top style="thin">
         <color rgb="FFB0B0B0"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB0B0B0"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -147,12 +143,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -448,90 +440,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="12" width="10" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.64453125" customWidth="1"/>
+    <col min="2" max="2" width="13.29296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4">
+    </row>
+    <row r="2" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="2">
         <v>2011</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2012</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2013</v>
-      </c>
-      <c r="E1" s="4">
-        <v>2014</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2015</v>
-      </c>
-      <c r="G1" s="4">
-        <v>2016</v>
-      </c>
-      <c r="H1" s="4">
-        <v>2017</v>
-      </c>
-      <c r="I1" s="4">
-        <v>2018</v>
-      </c>
-      <c r="J1" s="4">
-        <v>2019</v>
-      </c>
-      <c r="K1" s="4">
-        <v>2020</v>
-      </c>
-      <c r="L1" s="4">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>408580</v>
       </c>
-      <c r="C2" s="3">
+    </row>
+    <row r="3" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="3">
         <v>412272</v>
       </c>
-      <c r="D2" s="3">
+    </row>
+    <row r="4" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="3">
         <v>432462</v>
       </c>
-      <c r="E2" s="3">
+    </row>
+    <row r="5" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="3">
         <v>458715</v>
       </c>
-      <c r="F2" s="3">
+    </row>
+    <row r="6" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="3">
         <v>475183</v>
       </c>
-      <c r="G2" s="3">
+    </row>
+    <row r="7" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
         <v>497735</v>
       </c>
-      <c r="H2" s="3">
+    </row>
+    <row r="8" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
         <v>500595</v>
       </c>
-      <c r="I2" s="3">
+    </row>
+    <row r="9" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
         <v>493053</v>
       </c>
-      <c r="J2" s="3">
+    </row>
+    <row r="10" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3">
         <v>519337</v>
       </c>
-      <c r="K2" s="3">
+    </row>
+    <row r="11" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="2">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
         <v>322847</v>
       </c>
-      <c r="L2" s="3">
+    </row>
+    <row r="12" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
         <v>345997</v>
       </c>
     </row>

--- a/Data/CH_rail_passenger_yearly data since 2011.xlsx
+++ b/Data/CH_rail_passenger_yearly data since 2011.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hsluzern-my.sharepoint.com/personal/cristiano_antunes_stud_hslu_ch/Documents/International Business Administration IBA/Semester 06/Programming with Phyton/Project_Python/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{1F5A4445-0EDF-4F06-9C1A-2F8791936B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{93C57C7D-B28E-46F8-B488-BC34F3B953B6}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{1F5A4445-0EDF-4F06-9C1A-2F8791936B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{B22954E3-EDE9-4ACA-B42C-7C9F455D0777}"/>
   <bookViews>
     <workbookView xWindow="-4650" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,19 +32,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>Rail Passengers</t>
   </si>
+  <si>
+    <t>Per Capita CH</t>
+  </si>
+  <si>
+    <t>Per Capita SE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -69,6 +78,13 @@
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -106,10 +122,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -126,9 +143,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 3" xfId="1" xr:uid="{E5AF3CA2-E25A-438D-B141-2282B04BBB74}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,113 +461,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="21.64453125" customWidth="1"/>
     <col min="2" max="2" width="13.29296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.46875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.46875" style="5" customWidth="1"/>
     <col min="14" max="14" width="12.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.35" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2">
         <v>2011</v>
       </c>
       <c r="B2" s="3">
         <v>408580</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="6">
+        <v>5.1363590307168298E-2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1.9725599516179464E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2">
         <v>2012</v>
       </c>
       <c r="B3" s="3">
         <v>412272</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C3" s="6">
+        <v>5.128360778498979E-2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.0214018721222599E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="2">
         <v>2013</v>
       </c>
       <c r="B4" s="3">
         <v>432462</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C4" s="6">
+        <v>5.313041831994595E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.080962468729471E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2">
         <v>2014</v>
       </c>
       <c r="B5" s="3">
         <v>458715</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C5" s="6">
+        <v>5.5685069047470483E-2</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.1265256061772656E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2">
         <v>2015</v>
       </c>
       <c r="B6" s="3">
         <v>475183</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C6" s="6">
+        <v>5.7064466179567834E-2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.1767701750996876E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="2">
         <v>2016</v>
       </c>
       <c r="B7" s="3">
         <v>497735</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C7" s="6">
+        <v>5.9116579864719611E-2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.210521439741843E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="2">
         <v>2017</v>
       </c>
       <c r="B8" s="3">
         <v>500595</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C8" s="6">
+        <v>5.9003692776984792E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.2708646690464518E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="2">
         <v>2018</v>
       </c>
       <c r="B9" s="3">
         <v>493053</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C9" s="6">
+        <v>5.7703954823947537E-2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2.4094383434903669E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="2">
         <v>2019</v>
       </c>
       <c r="B10" s="3">
         <v>519337</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C10" s="6">
+        <v>6.0345690052548022E-2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2.5620984723540026E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="2">
         <v>2020</v>
       </c>
       <c r="B11" s="3">
         <v>322847</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C11" s="6">
+        <v>3.7235966460214757E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1.6298120440742844E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2">
         <v>2021</v>
       </c>
       <c r="B12" s="3">
         <v>345997</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3.9603617009099756E-2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.5681485632958635E-2</v>
       </c>
     </row>
   </sheetData>
